--- a/2022/SAMSUNG/JULY/02.07.2022/SAMSUNG Bank Statement July-2022.xlsx
+++ b/2022/SAMSUNG/JULY/02.07.2022/SAMSUNG Bank Statement July-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3123,6 +3123,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3222,6 +3228,75 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3231,9 +3306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3252,72 +3324,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3335,12 +3341,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3816,33 +3816,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="374"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
+      <c r="A1" s="376"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="375"/>
-      <c r="B2" s="372" t="s">
+      <c r="A2" s="377"/>
+      <c r="B2" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="373" t="s">
+      <c r="A3" s="377"/>
+      <c r="B3" s="375" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="375"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="375"/>
+      <c r="A5" s="377"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="375"/>
+      <c r="A6" s="377"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3890,7 +3890,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="375"/>
+      <c r="A7" s="377"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="375"/>
+      <c r="A8" s="377"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="375"/>
+      <c r="A9" s="377"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="375"/>
+      <c r="A10" s="377"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="375"/>
+      <c r="A11" s="377"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="375"/>
+      <c r="A12" s="377"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="375"/>
+      <c r="A13" s="377"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="375"/>
+      <c r="A14" s="377"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="375"/>
+      <c r="A15" s="377"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="375"/>
+      <c r="A16" s="377"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4074,7 +4074,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="375"/>
+      <c r="A17" s="377"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4087,7 +4087,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="375"/>
+      <c r="A18" s="377"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4100,7 +4100,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="375"/>
+      <c r="A19" s="377"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4113,7 +4113,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="375"/>
+      <c r="A20" s="377"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4126,7 +4126,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="375"/>
+      <c r="A21" s="377"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4139,7 +4139,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="375"/>
+      <c r="A22" s="377"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4152,7 +4152,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="375"/>
+      <c r="A23" s="377"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4165,7 +4165,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="375"/>
+      <c r="A24" s="377"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4178,7 +4178,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="375"/>
+      <c r="A25" s="377"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4191,7 +4191,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="375"/>
+      <c r="A26" s="377"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4204,7 +4204,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="375"/>
+      <c r="A27" s="377"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4217,7 +4217,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="375"/>
+      <c r="A28" s="377"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4230,7 +4230,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="375"/>
+      <c r="A29" s="377"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4243,7 +4243,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="375"/>
+      <c r="A30" s="377"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4256,7 +4256,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="375"/>
+      <c r="A31" s="377"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4269,7 +4269,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="375"/>
+      <c r="A32" s="377"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4282,7 +4282,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="375"/>
+      <c r="A33" s="377"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4295,7 +4295,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="375"/>
+      <c r="A34" s="377"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4308,7 +4308,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="375"/>
+      <c r="A35" s="377"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4321,7 +4321,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="375"/>
+      <c r="A36" s="377"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4334,7 +4334,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="375"/>
+      <c r="A37" s="377"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4347,7 +4347,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="375"/>
+      <c r="A38" s="377"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4360,7 +4360,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="375"/>
+      <c r="A39" s="377"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4373,7 +4373,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="375"/>
+      <c r="A40" s="377"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4386,7 +4386,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="375"/>
+      <c r="A41" s="377"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4399,7 +4399,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="375"/>
+      <c r="A42" s="377"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4412,7 +4412,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="375"/>
+      <c r="A43" s="377"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4425,7 +4425,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="375"/>
+      <c r="A44" s="377"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4438,7 +4438,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="375"/>
+      <c r="A45" s="377"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4451,7 +4451,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="375"/>
+      <c r="A46" s="377"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4464,7 +4464,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="375"/>
+      <c r="A47" s="377"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4477,7 +4477,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="375"/>
+      <c r="A48" s="377"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4490,7 +4490,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="375"/>
+      <c r="A49" s="377"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4503,7 +4503,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="375"/>
+      <c r="A50" s="377"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4516,7 +4516,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="375"/>
+      <c r="A51" s="377"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4529,7 +4529,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="375"/>
+      <c r="A52" s="377"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4542,7 +4542,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="375"/>
+      <c r="A53" s="377"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4555,7 +4555,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="375"/>
+      <c r="A54" s="377"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4568,7 +4568,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="375"/>
+      <c r="A55" s="377"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4580,7 +4580,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="375"/>
+      <c r="A56" s="377"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="375"/>
+      <c r="A57" s="377"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4604,7 +4604,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="375"/>
+      <c r="A58" s="377"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="375"/>
+      <c r="A59" s="377"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4628,7 +4628,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="375"/>
+      <c r="A60" s="377"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4640,7 +4640,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="375"/>
+      <c r="A61" s="377"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4652,7 +4652,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="375"/>
+      <c r="A62" s="377"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4664,7 +4664,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="375"/>
+      <c r="A63" s="377"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4676,7 +4676,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="375"/>
+      <c r="A64" s="377"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4688,7 +4688,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="375"/>
+      <c r="A65" s="377"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4700,7 +4700,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="375"/>
+      <c r="A66" s="377"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4712,7 +4712,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="375"/>
+      <c r="A67" s="377"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4724,7 +4724,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="375"/>
+      <c r="A68" s="377"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4736,7 +4736,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="375"/>
+      <c r="A69" s="377"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4748,7 +4748,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="375"/>
+      <c r="A70" s="377"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4760,7 +4760,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="375"/>
+      <c r="A71" s="377"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4772,7 +4772,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="375"/>
+      <c r="A72" s="377"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4784,7 +4784,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="375"/>
+      <c r="A73" s="377"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4796,7 +4796,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="375"/>
+      <c r="A74" s="377"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4808,7 +4808,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="375"/>
+      <c r="A75" s="377"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4820,7 +4820,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="375"/>
+      <c r="A76" s="377"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4832,7 +4832,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="375"/>
+      <c r="A77" s="377"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4844,7 +4844,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="375"/>
+      <c r="A78" s="377"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4856,7 +4856,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="375"/>
+      <c r="A79" s="377"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4868,7 +4868,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="375"/>
+      <c r="A80" s="377"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4880,7 +4880,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="375"/>
+      <c r="A81" s="377"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4892,7 +4892,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="375"/>
+      <c r="A82" s="377"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4904,7 +4904,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="375"/>
+      <c r="A83" s="377"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4961,33 +4961,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="374"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
+      <c r="A1" s="376"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="375"/>
-      <c r="B2" s="372" t="s">
+      <c r="A2" s="377"/>
+      <c r="B2" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="373" t="s">
+      <c r="A3" s="377"/>
+      <c r="B3" s="375" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="375"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5005,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="375"/>
+      <c r="A5" s="377"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="375"/>
+      <c r="A6" s="377"/>
       <c r="B6" s="26"/>
       <c r="C6" s="227"/>
       <c r="D6" s="227"/>
@@ -5035,7 +5035,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="375"/>
+      <c r="A7" s="377"/>
       <c r="B7" s="26"/>
       <c r="C7" s="227"/>
       <c r="D7" s="227"/>
@@ -5049,7 +5049,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="375"/>
+      <c r="A8" s="377"/>
       <c r="B8" s="26"/>
       <c r="C8" s="227"/>
       <c r="D8" s="227"/>
@@ -5063,7 +5063,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="375"/>
+      <c r="A9" s="377"/>
       <c r="B9" s="26"/>
       <c r="C9" s="227"/>
       <c r="D9" s="227"/>
@@ -5077,7 +5077,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="375"/>
+      <c r="A10" s="377"/>
       <c r="B10" s="26"/>
       <c r="C10" s="229"/>
       <c r="D10" s="229"/>
@@ -5091,7 +5091,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="375"/>
+      <c r="A11" s="377"/>
       <c r="B11" s="26"/>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
@@ -5105,7 +5105,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="375"/>
+      <c r="A12" s="377"/>
       <c r="B12" s="26"/>
       <c r="C12" s="227"/>
       <c r="D12" s="227"/>
@@ -5119,7 +5119,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="375"/>
+      <c r="A13" s="377"/>
       <c r="B13" s="26"/>
       <c r="C13" s="227"/>
       <c r="D13" s="227"/>
@@ -5133,7 +5133,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="375"/>
+      <c r="A14" s="377"/>
       <c r="B14" s="26"/>
       <c r="C14" s="227"/>
       <c r="D14" s="227"/>
@@ -5147,7 +5147,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="375"/>
+      <c r="A15" s="377"/>
       <c r="B15" s="26"/>
       <c r="C15" s="227"/>
       <c r="D15" s="227"/>
@@ -5161,7 +5161,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="375"/>
+      <c r="A16" s="377"/>
       <c r="B16" s="26"/>
       <c r="C16" s="227"/>
       <c r="D16" s="227"/>
@@ -5175,7 +5175,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="375"/>
+      <c r="A17" s="377"/>
       <c r="B17" s="26"/>
       <c r="C17" s="227"/>
       <c r="D17" s="227"/>
@@ -5189,7 +5189,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="375"/>
+      <c r="A18" s="377"/>
       <c r="B18" s="26"/>
       <c r="C18" s="227"/>
       <c r="D18" s="227"/>
@@ -5203,7 +5203,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="375"/>
+      <c r="A19" s="377"/>
       <c r="B19" s="26"/>
       <c r="C19" s="227"/>
       <c r="D19" s="229"/>
@@ -5217,7 +5217,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="375"/>
+      <c r="A20" s="377"/>
       <c r="B20" s="26"/>
       <c r="C20" s="227"/>
       <c r="D20" s="227"/>
@@ -5231,7 +5231,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="375"/>
+      <c r="A21" s="377"/>
       <c r="B21" s="26"/>
       <c r="C21" s="227"/>
       <c r="D21" s="227"/>
@@ -5245,7 +5245,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="375"/>
+      <c r="A22" s="377"/>
       <c r="B22" s="26"/>
       <c r="C22" s="227"/>
       <c r="D22" s="229"/>
@@ -5259,7 +5259,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="375"/>
+      <c r="A23" s="377"/>
       <c r="B23" s="26"/>
       <c r="C23" s="227"/>
       <c r="D23" s="227"/>
@@ -5273,7 +5273,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="375"/>
+      <c r="A24" s="377"/>
       <c r="B24" s="26"/>
       <c r="C24" s="227"/>
       <c r="D24" s="229"/>
@@ -5287,7 +5287,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="375"/>
+      <c r="A25" s="377"/>
       <c r="B25" s="26"/>
       <c r="C25" s="227"/>
       <c r="D25" s="227"/>
@@ -5301,7 +5301,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="375"/>
+      <c r="A26" s="377"/>
       <c r="B26" s="26"/>
       <c r="C26" s="227"/>
       <c r="D26" s="227"/>
@@ -5315,7 +5315,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="375"/>
+      <c r="A27" s="377"/>
       <c r="B27" s="26"/>
       <c r="C27" s="227"/>
       <c r="D27" s="227"/>
@@ -5329,7 +5329,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="375"/>
+      <c r="A28" s="377"/>
       <c r="B28" s="26"/>
       <c r="C28" s="227"/>
       <c r="D28" s="229"/>
@@ -5343,7 +5343,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="375"/>
+      <c r="A29" s="377"/>
       <c r="B29" s="26"/>
       <c r="C29" s="227"/>
       <c r="D29" s="227"/>
@@ -5357,7 +5357,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="375"/>
+      <c r="A30" s="377"/>
       <c r="B30" s="26"/>
       <c r="C30" s="227"/>
       <c r="D30" s="227"/>
@@ -5371,7 +5371,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="375"/>
+      <c r="A31" s="377"/>
       <c r="B31" s="26"/>
       <c r="C31" s="227"/>
       <c r="D31" s="227"/>
@@ -5385,7 +5385,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="375"/>
+      <c r="A32" s="377"/>
       <c r="B32" s="26"/>
       <c r="C32" s="227"/>
       <c r="D32" s="227"/>
@@ -5399,7 +5399,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="375"/>
+      <c r="A33" s="377"/>
       <c r="B33" s="26"/>
       <c r="C33" s="227"/>
       <c r="D33" s="229"/>
@@ -5413,7 +5413,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="375"/>
+      <c r="A34" s="377"/>
       <c r="B34" s="26"/>
       <c r="C34" s="227"/>
       <c r="D34" s="227"/>
@@ -5427,7 +5427,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="375"/>
+      <c r="A35" s="377"/>
       <c r="B35" s="26"/>
       <c r="C35" s="227"/>
       <c r="D35" s="227"/>
@@ -5441,7 +5441,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="375"/>
+      <c r="A36" s="377"/>
       <c r="B36" s="26"/>
       <c r="C36" s="227"/>
       <c r="D36" s="227"/>
@@ -5455,7 +5455,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="375"/>
+      <c r="A37" s="377"/>
       <c r="B37" s="26"/>
       <c r="C37" s="227"/>
       <c r="D37" s="227"/>
@@ -5469,7 +5469,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="375"/>
+      <c r="A38" s="377"/>
       <c r="B38" s="26"/>
       <c r="C38" s="227"/>
       <c r="D38" s="227"/>
@@ -5483,7 +5483,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="375"/>
+      <c r="A39" s="377"/>
       <c r="B39" s="26"/>
       <c r="C39" s="227"/>
       <c r="D39" s="227"/>
@@ -5497,7 +5497,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="375"/>
+      <c r="A40" s="377"/>
       <c r="B40" s="26"/>
       <c r="C40" s="227"/>
       <c r="D40" s="227"/>
@@ -5511,7 +5511,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="375"/>
+      <c r="A41" s="377"/>
       <c r="B41" s="26"/>
       <c r="C41" s="227"/>
       <c r="D41" s="227"/>
@@ -5525,7 +5525,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="375"/>
+      <c r="A42" s="377"/>
       <c r="B42" s="26"/>
       <c r="C42" s="227"/>
       <c r="D42" s="227"/>
@@ -5539,7 +5539,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="375"/>
+      <c r="A43" s="377"/>
       <c r="B43" s="26"/>
       <c r="C43" s="227"/>
       <c r="D43" s="227"/>
@@ -5553,7 +5553,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="375"/>
+      <c r="A44" s="377"/>
       <c r="B44" s="26"/>
       <c r="C44" s="227"/>
       <c r="D44" s="227"/>
@@ -5567,7 +5567,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="375"/>
+      <c r="A45" s="377"/>
       <c r="B45" s="26"/>
       <c r="C45" s="227"/>
       <c r="D45" s="227"/>
@@ -5581,7 +5581,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="375"/>
+      <c r="A46" s="377"/>
       <c r="B46" s="26"/>
       <c r="C46" s="227"/>
       <c r="D46" s="227"/>
@@ -5595,7 +5595,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="375"/>
+      <c r="A47" s="377"/>
       <c r="B47" s="26"/>
       <c r="C47" s="227"/>
       <c r="D47" s="227"/>
@@ -5609,7 +5609,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="375"/>
+      <c r="A48" s="377"/>
       <c r="B48" s="26"/>
       <c r="C48" s="227"/>
       <c r="D48" s="227"/>
@@ -5623,7 +5623,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="375"/>
+      <c r="A49" s="377"/>
       <c r="B49" s="26"/>
       <c r="C49" s="227"/>
       <c r="D49" s="227"/>
@@ -5637,7 +5637,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="375"/>
+      <c r="A50" s="377"/>
       <c r="B50" s="26"/>
       <c r="C50" s="227"/>
       <c r="D50" s="227"/>
@@ -5651,7 +5651,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="375"/>
+      <c r="A51" s="377"/>
       <c r="B51" s="26"/>
       <c r="C51" s="227"/>
       <c r="D51" s="227"/>
@@ -5665,7 +5665,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="375"/>
+      <c r="A52" s="377"/>
       <c r="B52" s="26"/>
       <c r="C52" s="227"/>
       <c r="D52" s="227"/>
@@ -5679,7 +5679,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="375"/>
+      <c r="A53" s="377"/>
       <c r="B53" s="26"/>
       <c r="C53" s="227"/>
       <c r="D53" s="227"/>
@@ -5693,7 +5693,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="375"/>
+      <c r="A54" s="377"/>
       <c r="B54" s="26"/>
       <c r="C54" s="227"/>
       <c r="D54" s="227"/>
@@ -5707,7 +5707,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="375"/>
+      <c r="A55" s="377"/>
       <c r="B55" s="26"/>
       <c r="C55" s="227"/>
       <c r="D55" s="227"/>
@@ -5721,7 +5721,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="375"/>
+      <c r="A56" s="377"/>
       <c r="B56" s="26"/>
       <c r="C56" s="227"/>
       <c r="D56" s="227"/>
@@ -5735,7 +5735,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="375"/>
+      <c r="A57" s="377"/>
       <c r="B57" s="26"/>
       <c r="C57" s="227"/>
       <c r="D57" s="227"/>
@@ -5746,7 +5746,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="375"/>
+      <c r="A58" s="377"/>
       <c r="B58" s="26"/>
       <c r="C58" s="227"/>
       <c r="D58" s="227"/>
@@ -5757,7 +5757,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="375"/>
+      <c r="A59" s="377"/>
       <c r="B59" s="26"/>
       <c r="C59" s="227"/>
       <c r="D59" s="227"/>
@@ -5768,7 +5768,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="375"/>
+      <c r="A60" s="377"/>
       <c r="B60" s="26"/>
       <c r="C60" s="227"/>
       <c r="D60" s="227"/>
@@ -5779,7 +5779,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="375"/>
+      <c r="A61" s="377"/>
       <c r="B61" s="26"/>
       <c r="C61" s="227"/>
       <c r="D61" s="227"/>
@@ -5790,7 +5790,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="375"/>
+      <c r="A62" s="377"/>
       <c r="B62" s="26"/>
       <c r="C62" s="227"/>
       <c r="D62" s="227"/>
@@ -5801,7 +5801,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="375"/>
+      <c r="A63" s="377"/>
       <c r="B63" s="26"/>
       <c r="C63" s="227"/>
       <c r="D63" s="227"/>
@@ -5812,7 +5812,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="375"/>
+      <c r="A64" s="377"/>
       <c r="B64" s="26"/>
       <c r="C64" s="227"/>
       <c r="D64" s="227"/>
@@ -5823,7 +5823,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="375"/>
+      <c r="A65" s="377"/>
       <c r="B65" s="26"/>
       <c r="C65" s="227"/>
       <c r="D65" s="227"/>
@@ -5834,7 +5834,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="375"/>
+      <c r="A66" s="377"/>
       <c r="B66" s="26"/>
       <c r="C66" s="227"/>
       <c r="D66" s="227"/>
@@ -5845,7 +5845,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="375"/>
+      <c r="A67" s="377"/>
       <c r="B67" s="26"/>
       <c r="C67" s="227"/>
       <c r="D67" s="227"/>
@@ -5856,7 +5856,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="375"/>
+      <c r="A68" s="377"/>
       <c r="B68" s="26"/>
       <c r="C68" s="227"/>
       <c r="D68" s="227"/>
@@ -5867,7 +5867,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="375"/>
+      <c r="A69" s="377"/>
       <c r="B69" s="26"/>
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
@@ -5878,7 +5878,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="375"/>
+      <c r="A70" s="377"/>
       <c r="B70" s="26"/>
       <c r="C70" s="227"/>
       <c r="D70" s="227"/>
@@ -5889,7 +5889,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="375"/>
+      <c r="A71" s="377"/>
       <c r="B71" s="26"/>
       <c r="C71" s="227"/>
       <c r="D71" s="227"/>
@@ -5900,7 +5900,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="375"/>
+      <c r="A72" s="377"/>
       <c r="B72" s="26"/>
       <c r="C72" s="227"/>
       <c r="D72" s="227"/>
@@ -5911,7 +5911,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="375"/>
+      <c r="A73" s="377"/>
       <c r="B73" s="26"/>
       <c r="C73" s="227"/>
       <c r="D73" s="227"/>
@@ -5922,7 +5922,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="375"/>
+      <c r="A74" s="377"/>
       <c r="B74" s="26"/>
       <c r="C74" s="227"/>
       <c r="D74" s="227"/>
@@ -5933,7 +5933,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="375"/>
+      <c r="A75" s="377"/>
       <c r="B75" s="26"/>
       <c r="C75" s="227"/>
       <c r="D75" s="227"/>
@@ -5944,7 +5944,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="375"/>
+      <c r="A76" s="377"/>
       <c r="B76" s="26"/>
       <c r="C76" s="227"/>
       <c r="D76" s="227"/>
@@ -5955,7 +5955,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="375"/>
+      <c r="A77" s="377"/>
       <c r="B77" s="26"/>
       <c r="C77" s="227"/>
       <c r="D77" s="227"/>
@@ -5966,7 +5966,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="375"/>
+      <c r="A78" s="377"/>
       <c r="B78" s="26"/>
       <c r="C78" s="227"/>
       <c r="D78" s="227"/>
@@ -5977,7 +5977,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="375"/>
+      <c r="A79" s="377"/>
       <c r="B79" s="26"/>
       <c r="C79" s="227"/>
       <c r="D79" s="227"/>
@@ -5989,7 +5989,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="375"/>
+      <c r="A80" s="377"/>
       <c r="B80" s="26"/>
       <c r="C80" s="227"/>
       <c r="D80" s="227"/>
@@ -6001,7 +6001,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="375"/>
+      <c r="A81" s="377"/>
       <c r="B81" s="26"/>
       <c r="C81" s="227"/>
       <c r="D81" s="227"/>
@@ -6013,7 +6013,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="375"/>
+      <c r="A82" s="377"/>
       <c r="B82" s="26"/>
       <c r="C82" s="227"/>
       <c r="D82" s="227"/>
@@ -6025,7 +6025,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="375"/>
+      <c r="A83" s="377"/>
       <c r="B83" s="31"/>
       <c r="C83" s="228">
         <f>SUM(C5:C72)</f>
@@ -6088,67 +6088,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="382" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
-      <c r="P1" s="380"/>
-      <c r="Q1" s="380"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
+      <c r="O1" s="382"/>
+      <c r="P1" s="382"/>
+      <c r="Q1" s="382"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="383" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
-      <c r="Q2" s="381"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="383"/>
+      <c r="G2" s="383"/>
+      <c r="H2" s="383"/>
+      <c r="I2" s="383"/>
+      <c r="J2" s="383"/>
+      <c r="K2" s="383"/>
+      <c r="L2" s="383"/>
+      <c r="M2" s="383"/>
+      <c r="N2" s="383"/>
+      <c r="O2" s="383"/>
+      <c r="P2" s="383"/>
+      <c r="Q2" s="383"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="384" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="383"/>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="383"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="383"/>
-      <c r="Q3" s="384"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="385"/>
+      <c r="G3" s="385"/>
+      <c r="H3" s="385"/>
+      <c r="I3" s="385"/>
+      <c r="J3" s="385"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="385"/>
+      <c r="M3" s="385"/>
+      <c r="N3" s="385"/>
+      <c r="O3" s="385"/>
+      <c r="P3" s="385"/>
+      <c r="Q3" s="386"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6157,52 +6157,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="385" t="s">
+      <c r="A4" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="387" t="s">
+      <c r="B4" s="389" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="376" t="s">
+      <c r="C4" s="378" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="376" t="s">
+      <c r="D4" s="378" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="378" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="376" t="s">
+      <c r="F4" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="378" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="376" t="s">
+      <c r="H4" s="378" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="376" t="s">
+      <c r="I4" s="378" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="376" t="s">
+      <c r="J4" s="378" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="376" t="s">
+      <c r="K4" s="378" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="376" t="s">
+      <c r="L4" s="378" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="376" t="s">
+      <c r="M4" s="378" t="s">
         <v>177</v>
       </c>
-      <c r="N4" s="376" t="s">
+      <c r="N4" s="378" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="378" t="s">
+      <c r="O4" s="380" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="391" t="s">
         <v>132</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6215,22 +6215,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="386"/>
-      <c r="B5" s="388"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377"/>
-      <c r="L5" s="377"/>
-      <c r="M5" s="377"/>
-      <c r="N5" s="377"/>
-      <c r="O5" s="379"/>
-      <c r="P5" s="390"/>
+      <c r="A5" s="388"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="379"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="379"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="379"/>
+      <c r="M5" s="379"/>
+      <c r="N5" s="379"/>
+      <c r="O5" s="381"/>
+      <c r="P5" s="392"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -9154,6 +9154,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9170,9 +9173,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9185,8 +9185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9212,14 +9212,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="398" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="398"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="400"/>
       <c r="G1" s="56"/>
       <c r="H1" s="135"/>
       <c r="I1" s="135"/>
@@ -9312,14 +9312,14 @@
       <c r="CR1" s="130"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="401" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="401"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="403"/>
       <c r="G2" s="56"/>
       <c r="H2" s="135"/>
       <c r="I2" s="135"/>
@@ -9412,14 +9412,14 @@
       <c r="CR2" s="130"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="402" t="s">
+      <c r="A3" s="404" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="404"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="406"/>
       <c r="G3" s="56"/>
       <c r="H3" s="135"/>
       <c r="I3" s="135"/>
@@ -12672,12 +12672,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="125"/>
-      <c r="B35" s="393" t="s">
+      <c r="B35" s="395" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="393"/>
-      <c r="D35" s="393"/>
-      <c r="E35" s="393"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="395"/>
       <c r="F35" s="126"/>
       <c r="G35" s="131"/>
       <c r="H35" s="132"/>
@@ -13526,9 +13526,9 @@
       <c r="D43" s="198"/>
       <c r="E43" s="168"/>
       <c r="F43" s="126"/>
-      <c r="G43" s="394"/>
-      <c r="H43" s="394"/>
-      <c r="I43" s="394"/>
+      <c r="G43" s="396"/>
+      <c r="H43" s="396"/>
+      <c r="I43" s="396"/>
       <c r="J43" s="56"/>
       <c r="K43" s="135"/>
       <c r="L43" s="56"/>
@@ -21557,11 +21557,11 @@
       <c r="CR118" s="130"/>
     </row>
     <row r="119" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A119" s="391" t="s">
+      <c r="A119" s="393" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="392"/>
-      <c r="C119" s="395"/>
+      <c r="B119" s="394"/>
+      <c r="C119" s="397"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
         <v>3162890</v>
@@ -21765,11 +21765,11 @@
       <c r="CR120" s="130"/>
     </row>
     <row r="121" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A121" s="391" t="s">
+      <c r="A121" s="393" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="392"/>
-      <c r="C121" s="392"/>
+      <c r="B121" s="394"/>
+      <c r="C121" s="394"/>
       <c r="D121" s="202">
         <f>D119+L121</f>
         <v>3162890</v>
@@ -32874,7 +32874,7 @@
   </sheetPr>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -32898,28 +32898,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="410" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="420"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="412"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
+      <c r="I1" s="409"/>
+      <c r="J1" s="409"/>
+      <c r="K1" s="409"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="419" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="429"/>
+      <c r="B2" s="420"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="420"/>
+      <c r="E2" s="421"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -32940,13 +32940,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="413" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="423"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="415"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -32973,13 +32973,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="422" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="432"/>
+      <c r="B4" s="423"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="423"/>
+      <c r="E4" s="424"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33442,11 +33442,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="287"/>
-      <c r="I17" s="408" t="s">
+      <c r="I17" s="407" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="408"/>
-      <c r="K17" s="408"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="407"/>
       <c r="L17" s="330">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -33469,11 +33469,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="287"/>
-      <c r="I18" s="433" t="s">
+      <c r="I18" s="425" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
+      <c r="J18" s="425"/>
+      <c r="K18" s="425"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -33485,21 +33485,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="424" t="s">
+      <c r="A19" s="416" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="425"/>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="426"/>
+      <c r="B19" s="417"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="418"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="416" t="s">
+      <c r="I19" s="408" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="416"/>
-      <c r="K19" s="416"/>
+      <c r="J19" s="408"/>
+      <c r="K19" s="408"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -33527,11 +33527,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="415" t="s">
+      <c r="I20" s="426" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="415"/>
-      <c r="K20" s="415"/>
+      <c r="J20" s="426"/>
+      <c r="K20" s="426"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -33558,11 +33558,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="434" t="s">
+      <c r="I21" s="427" t="s">
         <v>181</v>
       </c>
-      <c r="J21" s="435"/>
-      <c r="K21" s="436"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="429"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -33587,11 +33587,11 @@
       <c r="E22" s="246">
         <v>291370</v>
       </c>
-      <c r="I22" s="434" t="s">
+      <c r="I22" s="427" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="435"/>
-      <c r="K22" s="436"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="429"/>
       <c r="L22" s="355">
         <v>20000</v>
       </c>
@@ -33606,7 +33606,7 @@
       <c r="A23" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="444">
+      <c r="B23" s="373">
         <v>601820</v>
       </c>
       <c r="C23" s="38"/>
@@ -33616,11 +33616,11 @@
       <c r="E23" s="246">
         <v>54230</v>
       </c>
-      <c r="I23" s="408" t="s">
+      <c r="I23" s="407" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="408"/>
-      <c r="K23" s="408"/>
+      <c r="J23" s="407"/>
+      <c r="K23" s="407"/>
       <c r="L23" s="330">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -33690,13 +33690,13 @@
       <c r="E26" s="246">
         <v>30180</v>
       </c>
-      <c r="I26" s="409" t="s">
+      <c r="I26" s="433" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="410"/>
-      <c r="K26" s="410"/>
-      <c r="L26" s="410"/>
-      <c r="M26" s="411"/>
+      <c r="J26" s="434"/>
+      <c r="K26" s="434"/>
+      <c r="L26" s="434"/>
+      <c r="M26" s="435"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -33717,11 +33717,11 @@
       <c r="E27" s="314">
         <v>17000</v>
       </c>
-      <c r="I27" s="412" t="s">
+      <c r="I27" s="436" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="412"/>
-      <c r="K27" s="413"/>
+      <c r="J27" s="436"/>
+      <c r="K27" s="437"/>
       <c r="L27" s="342">
         <v>213170</v>
       </c>
@@ -33746,11 +33746,11 @@
       <c r="E28" s="253">
         <v>150770</v>
       </c>
-      <c r="I28" s="414" t="s">
+      <c r="I28" s="438" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="415"/>
-      <c r="K28" s="415"/>
+      <c r="J28" s="426"/>
+      <c r="K28" s="426"/>
       <c r="L28" s="341">
         <v>79500</v>
       </c>
@@ -33777,11 +33777,11 @@
       <c r="E29" s="329">
         <v>50000</v>
       </c>
-      <c r="I29" s="414" t="s">
+      <c r="I29" s="438" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="415"/>
-      <c r="K29" s="415"/>
+      <c r="J29" s="426"/>
+      <c r="K29" s="426"/>
       <c r="L29" s="344">
         <v>47500</v>
       </c>
@@ -33799,9 +33799,9 @@
       <c r="B30" s="33"/>
       <c r="C30" s="5"/>
       <c r="D30" s="32"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
-      <c r="K30" s="407"/>
+      <c r="I30" s="430"/>
+      <c r="J30" s="431"/>
+      <c r="K30" s="432"/>
       <c r="L30" s="341"/>
       <c r="M30" s="341"/>
       <c r="N30" s="7"/>
@@ -33811,11 +33811,11 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="I31" s="408" t="s">
+      <c r="I31" s="407" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="408"/>
-      <c r="K31" s="408"/>
+      <c r="J31" s="407"/>
+      <c r="K31" s="407"/>
       <c r="L31" s="340" t="e">
         <f>L27-L28-L29-#REF!-L30</f>
         <v>#REF!</v>
@@ -36545,6 +36545,12 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -36558,12 +36564,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -36597,10 +36597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="439" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="438"/>
+      <c r="B1" s="440"/>
       <c r="C1" s="255">
         <f>G10+C73</f>
         <v>112015</v>
@@ -36646,11 +36646,11 @@
       <c r="H3" s="350" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="441" t="s">
+      <c r="J3" s="443" t="s">
         <v>178</v>
       </c>
-      <c r="K3" s="441"/>
-      <c r="L3" s="441"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="24" t="s">
@@ -36685,16 +36685,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="443" t="s">
+      <c r="A5" s="372" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="372" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="311">
         <v>1000</v>
       </c>
-      <c r="D5" s="443"/>
+      <c r="D5" s="372"/>
       <c r="E5" s="61"/>
       <c r="F5" s="351" t="s">
         <v>152</v>
@@ -36717,16 +36717,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="443" t="s">
+      <c r="A6" s="372" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="372" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="311">
         <v>600</v>
       </c>
-      <c r="D6" s="443"/>
+      <c r="D6" s="372"/>
       <c r="E6" s="61"/>
       <c r="F6" s="351" t="s">
         <v>152</v>
@@ -36904,11 +36904,11 @@
       <c r="C15" s="358"/>
       <c r="D15" s="24"/>
       <c r="E15" s="61"/>
-      <c r="F15" s="442" t="s">
+      <c r="F15" s="444" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="442"/>
-      <c r="H15" s="442"/>
+      <c r="G15" s="444"/>
+      <c r="H15" s="444"/>
       <c r="J15" s="333" t="s">
         <v>147</v>
       </c>
@@ -37497,10 +37497,10 @@
       <c r="E72" s="306"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="439" t="s">
+      <c r="A73" s="441" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="440"/>
+      <c r="B73" s="442"/>
       <c r="C73" s="285">
         <f>SUM(C4:C72)</f>
         <v>12100</v>
